--- a/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9138009015668753</v>
+        <v>0.9138009015668754</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9202447443439495</v>
+        <v>0.9202447443439499</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9175864825211506</v>
+        <v>0.9175864825211504</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8870638609680525</v>
+        <v>0.8866610930859929</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9033049922097351</v>
+        <v>0.9032913277896074</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9012248260849351</v>
+        <v>0.9032152883608074</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9358928586005041</v>
+        <v>0.9355151058169088</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9340436978949622</v>
+        <v>0.9360659988729635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9302944345606206</v>
+        <v>0.9304542887445928</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.9090521109500085</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9054285816328572</v>
+        <v>0.9054285816328571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9072528857571903</v>
+        <v>0.9072528857571904</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8935404805623688</v>
+        <v>0.8933972586000138</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8930312581278402</v>
+        <v>0.8945317767061687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8989807182523076</v>
+        <v>0.8977928088771789</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9211696713136638</v>
+        <v>0.922147931222695</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9160741497173174</v>
+        <v>0.9159872382546764</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9169217490969362</v>
+        <v>0.9160470217717639</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9052653451202328</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8838423050225123</v>
+        <v>0.8838423050225124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8943660041208676</v>
+        <v>0.8943660041208675</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8843567791873215</v>
+        <v>0.8814131589038542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8604556043248995</v>
+        <v>0.860514085471606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.879865735577358</v>
+        <v>0.8781507789663829</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9267871808596482</v>
+        <v>0.9247740469677599</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9008927064766969</v>
+        <v>0.9028402015334368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9082887667665699</v>
+        <v>0.908054676800661</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.908949966546074</v>
+        <v>0.9089499665460742</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9038946731635301</v>
+        <v>0.90389467316353</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9063469757570415</v>
+        <v>0.9063469757570414</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8983599504504525</v>
+        <v>0.8981031491436882</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8954026208667372</v>
+        <v>0.8954960909291889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8994631112591848</v>
+        <v>0.8996662095194166</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9194223987217621</v>
+        <v>0.9205014142716323</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9114708856492042</v>
+        <v>0.9121068285731992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9128911339957152</v>
+        <v>0.9134431731706889</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>428313</v>
+        <v>428118</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>621120</v>
+        <v>621110</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1054839</v>
+        <v>1057169</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>451889</v>
+        <v>451707</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>642256</v>
+        <v>643646</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1088864</v>
+        <v>1089051</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1868389</v>
+        <v>1868089</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1841654</v>
+        <v>1844748</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3733688</v>
+        <v>3728754</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1926161</v>
+        <v>1928207</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1889174</v>
+        <v>1888995</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3808202</v>
+        <v>3804569</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>613431</v>
+        <v>611389</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>618156</v>
+        <v>618198</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1242417</v>
+        <v>1239995</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>642862</v>
+        <v>641466</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>647207</v>
+        <v>648606</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1282552</v>
+        <v>1282221</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2935378</v>
+        <v>2934539</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3105493</v>
+        <v>3105817</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6058558</v>
+        <v>6059926</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3004199</v>
+        <v>3007725</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3161222</v>
+        <v>3163427</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6149006</v>
+        <v>6152724</v>
       </c>
     </row>
     <row r="20">
